--- a/Datasets/parsedTests/OAB-39.xlsx
+++ b/Datasets/parsedTests/OAB-39.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>question_number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>question</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>comment</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>legalPrinciples</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>answers</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>canceledQuestion?</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>disciplines</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>QUESTÃO 01. Pedro, cidadão brasileiro, graduou -se em Direito em renomada instituição norte -americana. 
 Caso deseje exercer no Brasil a profissão de advogado, Pedro deverá solicitar inscrição na Ordem dos 
@@ -474,7 +487,7 @@
 d) Prestação de compromisso perante o conselho.</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra C  
@@ -499,22 +512,30 @@
 assinalada é a letra C.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Artigo 8º, §2º, do Estatuto da OAB, Artigo 8º do Estatuto da OAB, incisos do Art. 8º do Estatuto da OAB</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>QUESTÃO 02. Mariana deseja ingressar no quadro da Sociedade de Advogados XYZ, na qualidade de 
 associada, sem vínculo de emprego. Ao pesquisar a legislação que rege a parceria em questão, Mariana 
@@ -529,7 +550,7 @@
 d) a estabilidade da parceria, materializada na ausência de prazo determinado para a duração do contrato.</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra A.  
@@ -562,22 +583,30 @@
 dispõe o artigo 17 -B, inciso V, do EOAB, como requisito obrigatório: V - prazo de duração do contrato.</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Artigo 17-B do Estatuto da OAB, Artigo 17-B, inciso I, do EOAB, Artigo 17-B, inciso III, do EOAB, Artigo 17-B, inciso VI, do EOAB, Artigo 17-B, inciso V, do EOAB</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>QUESTÃO 03. Alice Santos, advogada, está sendo investigada criminalmente por ter, supostamente, 
 cometido fraude contra o sistema previdenciário, em conjunto com Robson Lima, seu cliente, e Leonardo  
@@ -594,7 +623,7 @@
 do segredo profissional.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -615,22 +644,30 @@
 Portanto, a alternativa correta a ser assinalada é a letra D.</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Estatuto da OAB, art. 35, III, EOAB, art. 7º, §6º -I, do EOAB, art. 154, CP, Art. 35, EOAB, Art. 154 do Código Penal</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E4" t="b">
-        <v>0</v>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>QUESTÃO 04. Durante audiência de instrução e julgamento da qual participou na qualidade de advogado, 
 Robson foi comprovadamente ofendido por palavras desferidas pelo juiz que presidia o ato. Abalado em 
@@ -647,7 +684,7 @@
 onde se encontre a autoridade ofensora.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra D.  
@@ -670,22 +707,30 @@
 se encontre a autoridade ofensora.</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Artigo 18, §1°, do Regulamento Geral da OAB, Art. 1º, §5º, da Resolução n. 01 de 22.05.2018, da OAB, Artigo 18, §1º, do Regulamento Geral da OAB, Artigo 18, §6º, do Regulamento Geral da OAB</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E5" t="b">
-        <v>0</v>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>QUESTÃO 05. O advogado Pedro, regularmente inscrito na OAB, deseja ser sócio de determinada 
 sociedade de advogados. É seu intuito, ainda, ser escolhido sócio administrador da mencionada sociedade 
@@ -701,7 +746,7 @@
 submetido seja de dedicação exclusiva, Pedro poderá ser sócio administrador da sociedade de advogados.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -720,22 +765,30 @@
 Nesse passo, a alternativa correta a ser assinalada é a letra A.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Artigo 18, §8º, do Estatuto da OAB, Artigo 117, X, da Lei n. 8.112/1990, Lei nº 8.112, de 11 de dezembro de 1990</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>QUESTÃO 06. O advogado Edson foi contratado para prestar a um cliente assessoria jurídica quanto a uma 
 questão imobiliária.  
@@ -750,7 +803,7 @@
 formalização por contrato de honorários.</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -761,22 +814,30 @@
 honorários.</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Artigo 5º, §4º, do Estatuto da OAB</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>QUESTÃO 07. Luana, advogada especialista em Direito Civil, é procurada por Carla, que busca ajuizar 
 demanda para obtenção de indenização por danos morais e materiais em face de seu vizinho. Ao tomar 
@@ -796,7 +857,7 @@
 sem procuração, obrigando -se a apresentá -la no prazo de quinze dias, prorrogável por igual período.</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -814,22 +875,30 @@
 prorrogável por igual período.</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Artigo 5º, §1º, EOAB, Artigo 5º, caput, do EOAB</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>QUESTÃO 08. Bruno, advogado, compareceu à audiência de conciliação acompanhado de seu cliente 
 Carlos, tendo -lhe sido conferidos poderes para transacionar em juízo ou fora dele. Na audiência, foi 
@@ -853,7 +922,7 @@
 por ele desempenhadas, por prazo não inferior a dois anos.</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra B.  
@@ -870,22 +939,30 @@
 Assim, a resposta correta a ser assinalada é a letra B.</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Artigo 133 da Constituição Federal, Artigo 34, inciso VIII, do EOAB</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E9" t="b">
-        <v>0</v>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Ética Profissional</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>QUESTÃO 09. O Código Civil de Napoleão, de 1804, representou um momento de grande expectativa e 
 confiança nos poderes da lei escrita. Nesse contexto, surge um importante movimento no Direito, 
@@ -902,7 +979,7 @@
 de uma solução para todos os eventuais casos ou ocorrências da vida social.</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D , pois a “Escola da Exegese” pode ser sinterizada em dois pontos 
@@ -917,22 +994,30 @@
 com base na lei positiva, muito menos contrária a ela, já que a lei é sinônimo de justo para a escola.</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Escola da Exegese, interpretação literal, interpretação racional, interpretação gramatical, aplicação da lei, vontade do legislador, onipotência do legislador, lei positiva</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E10" t="b">
-        <v>0</v>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Filosofia do Direito</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>QUESTÃO 10. "E tiveste a audácia de desobedecer a essa determinação? Sim porque não foi Zeus que a 
 promulgou; e a Justiça, a deusa que habita com as divindades subterrâneas jamais estabeleceu tal decreto 
@@ -954,7 +1039,7 @@
 independentemente de todo Estado, de toda convenção recíproca.</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -973,22 +1058,30 @@
 A alternativa C está incorreta , pois não é esse o conceito de lei natural em Aristóteles.</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Conceito aristotélico de lei natural, Lei natural e universal, Leis particulares, Direito Natural</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E11" t="b">
-        <v>0</v>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Filosofia do Direito</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>QUESTÃO 11. O Governador do Estado Alfa, recém -empossado, apresentou projeto de lei à Assembleia 
 Legislativa no qual propõe políticas de proteção específicas, direcionadas às pessoas com deficiência no 
@@ -1003,7 +1096,7 @@
 dispõe, expressamente, ser afeta à competência residual dos Estados.</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B .  
@@ -1027,22 +1120,30 @@
 desse grupo dentro do Estado Alfa.</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>Art. 24 da Constituição Federal, Competência concorrente da União, Estados e Distrito Federal para legislar sobre proteção e integração social das pessoas portadoras de deficiência, Federalismo brasileiro, Normas gerais estabelecidas pela União, Competência dos Estados para suplementar a legislação federal com disposições específicas, Diretrizes nacionais sobre a proteção e integração social das pessoas com deficiência</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E12" t="b">
-        <v>0</v>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>QUESTÃO 12. Emenda à Constituição inseriu novo direito social na Constituição Federal de 1988. Da 
 análise do dispositivo normativo extraiu -se que a fruição do direito ali previsto somente seria possível 
@@ -1067,7 +1168,7 @@
 que façam jus ao direito social.</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C .  
@@ -1110,22 +1211,30 @@
 perante o STF para garantir o exercício do direito social não regulamentado.</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Art. 8, Lei 13.300, Art. 102, I, q da CRFB/88, Artigo 5º, inciso LXXI, da Constituição Federal de 1988</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E13" t="b">
-        <v>0</v>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>QUESTÃO 13. O Presidente da República promulgou a Lei Federal XX/2022, versando sobre certa matéria, 
 que também poderia ser objeto de medida provisória. Tal lei vem sendo aplicada normalmente por 
@@ -1146,7 +1255,7 @@
 decisão definitiva de mérito proferida pelo STF em sede de ADI.</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -1178,22 +1287,30 @@
 anterior.</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Art. 28, p.u, Lei. 9.868/99, Art. 28, Ação Direta de Inconstitucionalidade (ADI), efeito vinculante e erga omnes</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E14" t="b">
-        <v>0</v>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>QUESTÃO 14. À luz de um caso concreto, que envolvia um cliente do escritório, dois advogados iniciaram 
 um debate sobre a relevância do instituto da Súmula Vinculante como instrumento de interpretação.   
@@ -1216,7 +1333,7 @@
 constitucional.</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1248,22 +1365,30 @@
 princípios constitucionais.</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Art. 2º, § 3º, Lei. 11.417/06, Art. 2º, Lei. 11.417/06, Súmulas Vinculantes, Constituição Federal, Princípios constitucionais</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E15" t="b">
-        <v>0</v>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>QUESTÃO 15. Vários municípios, pertencentes a diferentes estados -membros da Federação, vêm 
 reproduzindo o teor da Lei XX/2019, do Município Alfa. Esses diplomas vêm causando grande polêmica no 
@@ -1284,7 +1409,7 @@
 análise pela via do controle difuso de constitucionalidade.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1316,22 +1441,30 @@
 em ADC terem efeitos erga omnes e vinculantes, as normas municipais não podem ser objeto dessa ação.</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Art. 102, I, a, CF, Art. 13, Lei. 9.868/99, Constituição Federal, artigo 102, inciso I, alínea a, Lei 9.868/99, artigo 13</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E16" t="b">
-        <v>0</v>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>QUESTÃO 16. Bento de Souza, governador do Estado Alfa, reconhecido como grande gestor público, foi 
 indicado para assumir a presidência da Petrobras pelo Presidente da República. Honrado com o convite e 
@@ -1349,7 +1482,7 @@
 no período para o qual foi eleito, o cargo de presidente da Petrobras.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1384,22 +1517,30 @@
 a presidência da Petrobras, ele perderá o mandato de Governador do Estado Alfa.</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Art. 28, § 1º, CF, Art. 38, I, IV e V, da Constituição</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E17" t="b">
-        <v>0</v>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Direito Constitucional</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>QUESTÃO 17. Você atua, como advogado(a), em um caso em que seu cliente é um estrangeiro 
 indocumentado que vive no Brasil. Isso ocorreu porque ele teve de fugir às pressas do país de origem, 
@@ -1417,7 +1558,7 @@
 condição à esposa depende de decisão judicial e não administrativa.</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C  (segundo a FGV). Passível de Recurso .  
@@ -1447,22 +1588,30 @@
 alternativas aborda corretamente a situação conforme a legislação aplicável.</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Lei nº 9.474/97, Estatuto dos Refugiados, Art. 1º da Lei nº 9.474/97, Art. 2º da Lei nº 9.474/97</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E18" t="b">
+      <c r="F18" t="b">
         <v>1</v>
       </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Direitos Humanos</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>QUESTÃO 18. Você, como advogado(a), recebeu uma família cujo filho mais velho é pessoa com 
 deficiência. Na conversa inicial, os pais relataram algumas situações em que certas barreiras eram 
@@ -1479,7 +1628,7 @@
 de sistemas de comunicação e de tecnologia da informação.</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B .  
@@ -1519,22 +1668,30 @@
 todas as esferas da vida .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Estatuto da Pessoa com Deficiência, Art. 3º, IV do Estatuto da Pessoa com Deficiência, Princípios éticos e morais, Igualdade e não discriminação</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E19" t="b">
-        <v>0</v>
+      <c r="F19" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Direitos Humanos</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>QUESTÃO 19. Joana, deputada estadual no Estado Alfa , vinha recebendo inúmeras críticas de alguns 
 correligionários do seu partido político. Apesar do amplo apoio popular que recebia, para sua surpresa, 
@@ -1548,7 +1705,7 @@
 na convenção partidária.</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1591,22 +1748,30 @@
 Eleitoral, publicada em vinte e quatro horas em qualquer meio de comunicação.”</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>ADI 2530, Lei das Eleições (Lei nº 9.504/1997), Constituição Federal de 1988, isonomia, autonomia partidária, art. 7º da Lei nº 9.504/1997, art. 15, VI, da Lei nº 9.096/1995, art. 17, § 1º, da Lei Maior, art. 3º da Lei nº 9.096/1995, art. 17, §1º, da CF, art. 11, §14, da Lei nº 9.504/1997, art. 94, §1º, do Código Eleitoral, art. 11, §1º, da Lei nº 9.504/1997, art. 8º do referido diploma legal</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E20" t="b">
-        <v>0</v>
+      <c r="F20" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Direito Eleitoral</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>QUESTÃO 20. Os partidos políticos Alfa, Beta e Gama decidiram celebrar uma coligação para a eleição 
 municipal majoritária que se avizinhava. Apesar do apoio recebido da maior parte dos correligionários 
@@ -1624,7 +1789,7 @@
 que cada qual atua em sua própria esfera de atribuições.</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1635,22 +1800,30 @@
 As alternativas B, C e D estão incorretas , conforme o fundamento exposto na alternativa A.</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>art. 6º, §4º, da Lei nº 9.504/1997</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E21" t="b">
-        <v>0</v>
+      <c r="F21" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Direito Eleitoral</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>QUESTÃO 21. Em uma disputa judicial estabelecida no Brasil referente a um contrato de compra e venda 
 internacional de mercadorias, regido por lei estrangeira, uma sociedade empresária a invocou para 
@@ -1665,7 +1838,7 @@
 d) Ao juiz é vedado transferir o encargo de comprovar o teor e a vigência da lei estrangeira à parte.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão tratou da Lei de Introdução às Normas do Direito Brasileiro 
@@ -1682,22 +1855,30 @@
 A alternativa D está incorreta , pois é justamente o contrário que dispõe o art. 14 da LINDB, já mencionado.</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Lei de Introdução às Normas do Direito Brasileiro (LINDB), Art. 14 da LINDB, Art. 9º, § 1º da LINDB</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E22" t="b">
-        <v>0</v>
+      <c r="F22" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Direito Internacional</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>QUESTÃO 22. Um jato privado, de propriedade de empresa inglesa, causou um acidente ao colidir com 
 uma aeronave comercial brasileira em território nacional, provocando várias mortes, entre passageiros e 
@@ -1712,7 +1893,7 @@
 d) O caso deve ser remetido por carta rogatória à justiça inglesa, a quem cabe julgá -lo.</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . A questão trata de competência envolvendo agentes internacionais em 
@@ -1730,22 +1911,30 @@
 justiça inglesa.</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>art. 53, V, do CPC</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E23" t="b">
-        <v>0</v>
+      <c r="F23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Direito Internacional</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>QUESTÃO 23. O deputado federal José, por meio das emendas individuais impositivas constitucionalmente 
 previstas que a ele competem, deseja destinar recursos para o Município Alfa . Contudo, deseja fazê -lo por 
@@ -1758,7 +1947,7 @@
 d) Transferência extraordinária.</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -1775,22 +1964,30 @@
 As alternativas B, C e D estão incorretas , conforme o fundamento exposto na alternativa A.</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>art. 166-A, §2º, I, da CF, Emenda Constitucional nº 105, de 2019</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E24" t="b">
-        <v>0</v>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Direito Financeiro</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>QUESTÃO 24. Em um determinado ano, diante de grave impasse entre o Poder Executivo federal e o 
 Congresso Nacional, o que vem dificultando a aprovação das leis orçamentárias, e em face da relevância 
@@ -1810,7 +2007,7 @@
 haja relevância e urgência, e que seja aprovada pelo Congresso Nacional no prazo de 60 (sessenta) dias.</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -1825,22 +2022,30 @@
 A alternativa D está incorreta , consoante o fundamento exposto na alternativa A.</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>Constituição Federal, art. 62, §1º, I, “d”, art. 167, § 3º da CF, art. 62 da CF</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E25" t="b">
-        <v>0</v>
+      <c r="F25" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Direito Financeiro</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>QUESTÃO 25. O Estado Alfa notificou João em 05/05/2022 para, no prazo legal de 30 dias, pagar ou 
 impugnar sua dívida de IPVA referente aos anos de 2020 e 2021. Este, por sua vez, quedou -se inerte e 
@@ -1861,7 +2066,7 @@
 proteção ao crédito.</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -1880,22 +2085,30 @@
 A letra D está incorreta . Vide comentários da alternativa C.</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Lei 9492/97, Art. 1º da Lei 9492/97, Art. 29 da Lei 9492/97</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E26" t="b">
-        <v>0</v>
+      <c r="F26" t="b">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>QUESTÃO 26. João e José receberam um imóvel residencial situado no Município Alfa por herança de seus 
 pais. Em janeiro de, 2017, com autorização de José (menor de idade), seu irmão e tutor João (maior de 
@@ -1915,7 +2128,7 @@
 d) não podia ter sido ajuizada por já estar o crédito tributário prescrito.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.   
@@ -1932,22 +2145,30 @@
 crédito tributário prescreve em cinco anos, contados da data da sua constituição definitiva.”</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Art. 123 do CTN, Art. 124 do CTN, Art. 126 do CTN, Art. 174 do CTN</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E27" t="b">
-        <v>0</v>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>QUESTÃO 27. No ano de 2022, os sindicatos de enfermeiros e de médicos do Estado Alfa firmaram 
 convenção coletiva de trabalho (CCT) com os hospitais daquele estado para que a remuneração paga pelo 
@@ -1968,7 +2189,7 @@
 pois a incidência do imposto sobre a renda independe da denominação do rendimento.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -1983,22 +2204,30 @@
 localização, condição jurídica ou nacionalidade da f onte, da origem e da forma de percepção.”.</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Art. 43 do CTN, aquisição da disponibilidade econômica ou jurídica, A incidência do imposto independe da denominação da receita ou do rendimento, da localização, condição jurídica ou nacionalidade da fonte, da origem e da forma de percepção, Isenção tributária necessita de lei específica</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E28" t="b">
-        <v>0</v>
+      <c r="F28" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>QUESTÃO 28. Um grupo de empresários da área têxtil decidiu criar um sindicato dos empregadores 
 daquele setor, para fins de representação e defesa dos interesses da categoria econômica.  
@@ -2017,7 +2246,7 @@
 tributária de impostos.</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -2031,22 +2260,30 @@
 A letra D está incorreta . Não existe imunidade tributária para sindicato de empregadores.</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Art. 150, VI, c da Constituição Federal</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E29" t="b">
-        <v>0</v>
+      <c r="F29" t="b">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>QUESTÃO 29. Diante da calamidade pública decretada pela União, por força da pandemia da "Gripe -
 22XY   foi editada a Lel Ordinária Federal n2 XX/2022, de 01/05/2022, estabelecendo sua vigência e eficácia 
@@ -2060,7 +2297,7 @@
 d) violou a exigência de ser veiculada mediante Lei Complementar.</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -2077,22 +2314,30 @@
 relevante interesse nacional, observado o disposto no art. 150, III, "b".”</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Art. 148 da Constituição Federal, Art. 150, III, "b" da Constituição Federal, Art. 150, III, c da CF/88</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E30" t="b">
-        <v>0</v>
+      <c r="F30" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Direito Tributário</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>QUESTÃO 30. Diante da necessidade de vultosos investimentos em infraestrutura e para atrair a iniciativa 
 privada, a União divulgou, pelos meios de comunicação, que pretende realizar uma parceria público -
@@ -2110,7 +2355,7 @@
 Pública.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra A . 
@@ -2134,22 +2379,30 @@
 parcerias de que trata esta Lei.”</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Artigo 10, § 3º, da Lei 11.079/2004, Artigo 9º da Lei 11.079/2004, Artigo 6º da Lei 11.079/2004, Artigo 16 da Lei 11.079/2004</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E31" t="b">
-        <v>0</v>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>QUESTÃO 31. No ano de 2020, o Município Alfa, por meio da Secretaria Municipal de Saúde, realizou 
 concurso público para o cargo de médico. Não obstante a inexistência de previsão legal, no curso do 
@@ -2179,7 +2432,7 @@
 da Suprema Corte, sob pena de responsabilização pessoal nas esf eras cível, administrativa e penal.</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra D.  
@@ -2191,22 +2444,30 @@
 Portanto, é cabível pedido de reconsideração. As demais alternativas ficam automaticamente incorretas .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>art. 56, § 3º, da Lei 9.784/99, Súmula vinculante, Pedido de reconsideração</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E32" t="b">
-        <v>0</v>
+      <c r="F32" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>QUESTÃO 32. A Secretaria de Fazenda do Estado Alfa acabou de adquirir novos computadores, que 
 substituíram os antigos equipamentos que serviam aos agentes públicos lotados no órgão. Sendo assim, 
@@ -2225,7 +2486,7 @@
 equipamentos.</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra  A. 
@@ -2245,22 +2506,30 @@
 dará obrigatoriamente na modalidade leilão.</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Art. 76, II, da Lei 14.133/2021, Art. 76, I, da Lei 14.133/2021</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E33" t="b">
-        <v>0</v>
+      <c r="F33" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>QUESTÃO 33. O Município Ômega pretende alugar o imóvel de propriedade de João, pois suas 
 características de instalações e de localização tornam necessária sua escolha, uma vez que se trata de um 
@@ -2288,7 +2557,7 @@
 e do prazo de amortização dos investimentos.</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra D.  
@@ -2315,22 +2584,30 @@
 necessidades  de utilização, e do prazo de amortização dos investimentos;”</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Art. 75, V, da Lei 14.133/2021, Art. 74, § 5º, da Lei 14.133/2021, Art. 74, § 5º, I, da Lei 14.133/2021, Art. 74 da Lei 14.133/2021</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E34" t="b">
-        <v>0</v>
+      <c r="F34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>QUESTÃO 34. A sociedade empresária Alfa praticou ato lesivo à administração pública do Estado Beta, 
 pois, em matéria de licitações e contratos, obteve vantagem indevida, de modo fraudulento, em 
@@ -2350,7 +2627,7 @@
 programa de integridade, no prazo de 90 (noventa) dias da assinatura do acordo.</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra C . 
@@ -2365,22 +2642,30 @@
 incorretas .</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Art. 16, § 2º, da Lei 12.846/2013, Art. 6º, II da Lei 12.846/2013, Art. 19, IV da Lei 12.846/2013</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E35" t="b">
-        <v>0</v>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Direito Administrativo</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>QUESTÃO 35. O engenheiro ambiental João foi contratado pelo empreendedor Alfa para coordenar uma 
 equipe multidisciplinar durante a elaboração de um estudo de impacto ambiental (EIA), referente a 
@@ -2406,7 +2691,7 @@
 e apresentação do EIA não é o empreendedor e sim, o profissional técnico.</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra C . 
@@ -2419,22 +2704,30 @@
 Por esse motivo, as alternativas A, B, D estão incorretas.</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Art. 69-A da Lei n.º 9.605/98</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E36" t="b">
-        <v>0</v>
+      <c r="F36" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Direito Ambiental</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>QUESTÃO 36. A sociedade empresária Alfa requereu licença ambiental para empreendimento consistente 
 em indústria de cimento que gera materiais particulados, que se instalaria em determinada zona industrial 
@@ -2451,7 +2744,7 @@
 para concluir que a atividade é efetivamente perigosa.</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -2466,22 +2759,30 @@
 dano ambiental, devendo o poluidor arcar com todo o custo da reparação ao meio ambiente.</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Princípio da Precaução, Princípio do desenvolvimento sustentável, Princípio do poluidor-pagador</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E37" t="b">
-        <v>0</v>
+      <c r="F37" t="b">
+        <v>0</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Direito Ambiental</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>QUESTÃO 37. Marcelo alugou um cavalo do haras Galopante  para, com ele, disputar uma corrida no dia 
 15, comprometendo -se a devolvê -lo no dia seguinte à corrida (dia 16). Entretanto, Marcelo se afeiçoou 
@@ -2505,7 +2806,7 @@
 estava em mora.</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.   
@@ -2517,22 +2818,30 @@
 As demais alternativas  estão incorretas , conforme comentário da alternativa D.</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>arts. 239, 399 e 402 do Código Civil</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E38" t="b">
-        <v>0</v>
+      <c r="F38" t="b">
+        <v>0</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>QUESTÃO 38. Luan, conduzindo seu automóvel em velocidade acima da permitida, colidiu violentamente 
 contra o veículo em que estavam Felipe com 10 anos de idade, e seus pais, Paulo, com 45 anos de idade, 
@@ -2551,7 +2860,7 @@
 d) É vedado a Luan renunciar à eventual prescrição que lhe beneficie.</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.   
@@ -2567,22 +2876,30 @@
 ela expressa ou tácita, não sendo vedado a Luan renunciar à eventual prescrição que lhe beneficie.</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>prazo trienal para exercer o direito de ação, art. 198, I do CC, art. 203, §3º, V, art. 192 do CC, art. 191 do Código Civil</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E39" t="b">
-        <v>0</v>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>QUESTÃO 39. Ana comprou de Miguel um carro usado, por R$ 60.000,00, e combinou de fazer o 
 pagamento à vista, por PIX. Ocorre que, na hora de digitar a chave PIX de Miguel - seu número de celular 
@@ -2608,7 +2925,7 @@
 montante, vez que se considera possuidor de má -fé.</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.   
@@ -2622,22 +2939,30 @@
 As demais alternativas  estão incorretas , conforme o comentário da alternativa D.</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>art. 876 do Código Civil, art. 877 do Código Civil</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E40" t="b">
-        <v>0</v>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>QUESTÃO 40. Devido às consequências da pandemia, Gabriel Cervantes teve problemas financeiros e 
 profissionais, levando ao consumo de álcool de forma abusiva diariamente, sendo considerado pelos 
@@ -2656,7 +2981,7 @@
 ou hipotecar seu patrimônio, podendo praticar livremente os demais atos da vida civil.</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -2669,22 +2994,30 @@
 As demais alternativas estão incorretas , conforme comentários da alternativa C.</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>art. 1.767, III do Código Civil, arts. 1.775 do Código Civil, art. 1.778 do Código Civil</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E41" t="b">
-        <v>0</v>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>QUESTÃO 41. Vítor contraiu empréstimo perante uma instituição bancária e ofereceu, como garantia da 
 dívida, a hipoteca sobre um bem imóvel dele.   
@@ -2699,7 +3032,7 @@
 real em prol da instituição bancária.</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D. A hipoteca do bem principal abrange o  bem acessório.  
@@ -2710,22 +3043,30 @@
 As demais alternativas estão incorretas , conforme comentários da alternativa D.</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>Art. 1.474 do Código Civil, Art. 1.475 do Código Civil, Hipoteca do bem principal abrange o bem acessório</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E42" t="b">
-        <v>0</v>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>QUESTÃO 42. Júlio Cesar e Thayane forma casados por 8 anos e tiveram 2 filhos. Como a separação foi 
 amigável, o casal achou melhor não realizar qualquer medida judicial, acordando verbalmente o valor da 
@@ -2751,7 +3092,7 @@
 verbal.</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C.  
@@ -2767,22 +3108,30 @@
 As demais alternativas  estão incorretas , conforme os comentários da alternativa C.</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Direito fundamental ao contato com os filhos, Art. 1.634 do Código Civil, Pleno exercício do poder familiar (guarda unilateral ou compartilhada)</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E43" t="b">
-        <v>0</v>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Direito Civil</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>QUESTÃO 43. Eduardo adotou Bernardo, criança de dois anos, regularmente e de forma unilateral, 
 tornando -se seu pai. Quando Bernardo completou três anos, Eduardo, infelizmente, faleceu vítima de um 
@@ -2802,7 +3151,7 @@
 com a mãe biológica, fugindo à regra geral.</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -2813,22 +3162,30 @@
 Nesse sentido, as alternativas A, C, D estão incorretas.</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Adoção é medida excepcional e irrevogável, Art. 49 do ECA</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E44" t="b">
-        <v>0</v>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Direito da Criança e do Adolescente</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>QUESTÃO 44. Carlos e Joana, pais da criança Paula, estão dissolvendo sua união estável, ainda sem 
 judicialização, detendo Joana a guarda de fato de Paula enquanto não regularizados os regimes de 
@@ -2852,7 +3209,7 @@
 razão do melhor interesse da criança, seja qual for o foro inicialmente escolhido.</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>Comentários  
 Trata -se de questão referente a conflito de competência em ação de regulamentação da guarda e 
@@ -2954,22 +3311,30 @@
 Por tais fatos e fundamentos supracitados, requer -se a ALTERAÇÃO DE GABARITO PARA A LETRA “D”.</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>princípio da prioridade absoluta dos interesses da criança ou do adolescente, Súmula 383/STJ, princípio do juízo imediato, previsto no art. 147, I e II, do ECA, princípio do melhor interesse da criança, princípio do melhor interesse da criança e do adolescente, art. 147, I e II do ECA, Convenção sobre os Direitos da Criança de 1989, em seu art. 1ªº e 3º</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E45" t="b">
-        <v>0</v>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Direito da Criança e do Adolescente</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>QUESTÃO 45.  Adônis procurou você, como advogado(a), queixando -se de lhe ter sido negado crédito. 
 Informou que a recusa se baseou em uma pontuação baixa atribuída por meio do uso do método para 
@@ -2990,7 +3355,7 @@
 consumidor, pois são confidenciais.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra C.  
@@ -3018,22 +3383,30 @@
 cálculo do escore de crédito. Correta a alternativa  C.</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>Lei 12.414/2011, Lei Complementar 166 de 2019, Súmula 550 – STJ</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E46" t="b">
-        <v>0</v>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Direito do Consumidor</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>QUESTÃO 46.  Em viagem realizada do Rio de Janeiro para os Estados Unidos, em Janeiro de 2023, Luan e 
 Vanessa tiveram uma de suas malas extraviada, tendo sofrido um prejuízo quantificado em cerca de R$ 
@@ -3057,7 +3430,7 @@
 exigido pelo CDC.</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a  letra B. Porém, é  cabível recurso.  
@@ -3123,22 +3496,30 @@
 não foram considerados na questão.</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Convenção de Varsóvia, Convenção de Montreal, princípio da indenizabilidade restrita ou tarifada, princípio da reparação integral do dano, art. 14 do CDC, art. 22 da Convenção de Varsóvia, art. 178 da Constituição da República, Código de Defesa do Consumidor, Princípio da reciprocidade</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E47" t="b">
-        <v>0</v>
+      <c r="F47" t="b">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Direito do Consumidor</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>QUESTÃO 47. Pastifício Ponte Serrada S/A celebrou contrato de comissão com Elói Mendes para aquisição 
 de cereais. O negócio foi efetuado pelo comissário conforme as instruções recebidas, mas a vendedora, 
@@ -3155,7 +3536,7 @@
 comitente pelos prejuízos advindos, mas o primeiro apenas em caráter subsidiário.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -3173,22 +3554,30 @@
 Por essa razão, as alternativas B, C, D estão incorretas .</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>art. 697 do Código Civil, art. 689 do Código Civil, cláusula del credere</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E48" t="b">
-        <v>0</v>
+      <c r="F48" t="b">
+        <v>0</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>QUESTÃO 48. Pedreira Anitópolis Ltda está passando por sérias dificuldades de fluxo de caixa a curto e 
 médio prazo e não está conseguindo crédito no mercado financeiro para honrar seus compromissos 
@@ -3211,7 +3600,7 @@
 decorrentes de acidentes de trabalho não se sujeitam ao s efeitos da recuperação extrajudicial.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A.  
@@ -3222,22 +3611,30 @@
 Dessa maneira, as alternativas B, C, D estão incorretas.</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Art. 161, § 1º, da Lei n.o 11.101/2005, art. 49, inciso II do caput do art. 86</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E49" t="b">
-        <v>0</v>
+      <c r="F49" t="b">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>QUESTÃO 49. O empresário individual Valério Pavão deseja alterar a forma de exercício da sociedade 
 empresária, passando a admitir como sócio Jerônimo e Atílio, e mantendo a mesma atividade e localização 
@@ -3253,7 +3650,7 @@
 patrimonial, constituir uma sociedade com os sócios Jerônimo e Atílio.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B.  
@@ -3263,22 +3660,30 @@
 As alternativas A, C, D estão incorretas.</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>art. 1.113 do Código Civil</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E50" t="b">
-        <v>0</v>
+      <c r="F50" t="b">
+        <v>0</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>QUESTÃO 50. Quatro professores, que dão aulas particulares, decidiram constituir uma sociedade simples 
 e chamaram para integrar a sociedade Belfort Pereira, empresário individual, inscrito na Junta Comercial 
@@ -3295,7 +3700,7 @@
 enquadrada como microempresa.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D.  
@@ -3305,22 +3710,30 @@
 Dessa forma, as alternativas A, B, C estão incorretas .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>art. 3o, § 4º, III, da Lei Complementar n.º 123, de 14 de dezembro de 2006</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E51" t="b">
+      <c r="F51" t="b">
         <v>1</v>
       </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Direito Empresarial</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>QUESTÃO 51. Stefano Carneiro, após ganhar indenização de R$ 60.000,00 em processo judicial movido em 
 face de Estevão Braga, inicia o cumprimento definitivo de sentença requerendo ao juízo competente que 
@@ -3339,7 +3752,7 @@
 d) O parcelamento pretendido por Estevão não se aplica ao cumprimento de sentença.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão tratou sobre o parcelamento da execução previsto no art. 916 
@@ -3360,22 +3773,30 @@
 7º, do CPC).</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>art. 916 do CPC, art. 916, § 7º, do CPC, REsp nº 1.891.577/MG, art. 916 do CPC, art. 916, § 7º, do CPC, art. 916, § 7º, do CPC</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E52" t="b">
-        <v>0</v>
+      <c r="F52" t="b">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>QUESTÃO 52. Em determinada demanda judicial cível é proferida sentença de procedência do pedido 
 autoral, com a condenação da sociedade empresária ré ao pagamento de determinado valor a título de 
@@ -3395,7 +3816,7 @@
 de seu direito de defesa.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . A questão tratou do incidente de desconsideração da personalidade jurídica.  
@@ -3414,22 +3835,30 @@
 requerer as provas cabíveis no prazo de 15 (quinze) dias” .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Art. 134, § 3º do CPC, Art. 136 do CPC, Art. 134, “caput” , do CPC, Art. 135 do CPC</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E53" t="b">
-        <v>0</v>
+      <c r="F53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>QUESTÃO 53. Ademir Leone, servidor público aposentado, atualmente obtém sua maior fonte de renda 
 por meio da compra e venda de ações na bolsa de valores brasileira, tendo em vista a perda do poder 
@@ -3453,7 +3882,7 @@
 a probabilidade do direito e o perigo de dano ou o risco ao resultado útil do processo.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão tratou das tutelas provisórias.  
@@ -3476,22 +3905,30 @@
 razoável. Parágrafo único. Nas hipóteses dos incisos II e III, o juiz poderá decidir liminarmente” .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>art. 300 do CPC, tutelas provisórias, urgência (art. 300 do CPC), evidência (art. 311 do CPC), fumus bonis iuris, periculum in mora, tutela de evidência, art. 311 do CPC, abuso do direito de defesa, manifesto propósito protelatório da parte, julgamento de casos repetitivos, súmula vinculante, pedido reipersecutório, prova documental, contrato de depósito</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E54" t="b">
-        <v>0</v>
+      <c r="F54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>QUESTÃO 54. Martina ajuizou ação pelo procedimento comum contra Marcela visando à indenização 
 milionária, oportunidade na qual informou na petição inicial que não tinha interesse na audiência de 
@@ -3515,7 +3952,7 @@
 de Florianópolis/SC.</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . A questão tratou da fase inicial do procedimento comum (audiência de 
@@ -3530,22 +3967,30 @@
 réu, na hipótese em que a parte autora manifestou desinteresse pela audiência na petiç ão inicial.</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>art. 334, § 4º, I do CPC, art. 335, II, do CPC</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E55" t="b">
-        <v>0</v>
+      <c r="F55" t="b">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>QUESTÃO 55. Samuel ajuizou ação de exigir contas contra Maria, requerendo sua citação para que as 
 preste ou ofereça contestação, no prazo de 15 (quinze) dias úteis. Em sua petição inicial, Samuel alegou 
@@ -3565,7 +4010,7 @@
 houver.</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata da ação de exigir contas, procedimento especial previsto 
@@ -3585,22 +4030,30 @@
 citação do réu para que as preste ou ofereça contestação no prazo de 15 (quinze) dias ”.</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>art. 551 do CPC, art. 550, § 6º, do CPC, art. 550, § 5º, do CPC, art. 550, “caput” , do CPC</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E56" t="b">
-        <v>0</v>
+      <c r="F56" t="b">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>QUESTÃO 56. A General Food  é uma reconhecida sociedade empresária britânica do ramo de alimentos 
 presidida, desde 2018, pelo brasileiro Rodrigo Bottas.  
@@ -3623,7 +4076,7 @@
 Rodrigo Bottas antes de executar a referida decisão no Brasil.</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="C57" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . A questão trata da homologação de decisão estrangeira.   
@@ -3637,22 +4090,30 @@
 posterior execução da decisão arbitral estrangeira.</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>art. 960, § 3º, do CPC</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E57" t="b">
-        <v>0</v>
+      <c r="F57" t="b">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Direito Processual Civil</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>QUESTÃO 57. Paulo nasceu em outubro de 1990. Em julho de 2011, Paulo cometeu o delito de homicídio 
 simples contra um vizinho. O Ministério Público ofereceu denúncia no ano de 2022. Sobre a hipótese 
@@ -3665,7 +4126,7 @@
 d) Por se tratar de crime hediondo, o crime cometido por Paulo é imprescritível.</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A .  
@@ -3687,22 +4148,30 @@
 Democrático (art. 5º, XLIV, da CF).</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>art. 115, do CP, art. 121, do CP, art. 109, I, do CP, art. 1º, I, da lei nº 8.072/90, art. 5º, XLII, da CF, art. 5º, XLIV, da CF</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E58" t="b">
-        <v>0</v>
+      <c r="F58" t="b">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>QUESTÃO 58. João completou 20 anos e foi colocado em liberdade, após cumprir 3 anos de internação por 
 medida socioeducativa em razão da prática de atos infracionais análogos a estupro e furto, conforme 
@@ -3720,7 +4189,7 @@
 considerada circunstância judicial, ainda que se tratem de condenações distintas.</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -3735,22 +4204,30 @@
 A alternativa D está incorreta.   Conforme comentários da alternativa A.</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>Circunstâncias judiciais, Reincidência, AgInt no REsp 1906504/SP, Maus antecedentes</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E59" t="b">
-        <v>0</v>
+      <c r="F59" t="b">
+        <v>0</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>QUESTÃO 59. Maciel teve sua prisão temporária prolongada sem motivo justo e excepcionalíssimo, por 
 decisão de Xavier, diretor da unidade prisional em que Maciel estava custodiado. Esgotado o prazo legal 
@@ -3763,7 +4240,7 @@
 d) Não praticou crime algum, tendo em vista que o alvará de soltura foi cumprido.</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -3781,22 +4258,30 @@
 vez que prolongou injustamente a prisão temporária a que estava submetido pessoa sob sua custódia.</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Crimes contra Administração Pública, Abuso de Autoridade, art. 317, do CP, art. 12, p. único, IV, da lei nº 13.689/2019, art. 330, do CP</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E60" t="b">
-        <v>0</v>
+      <c r="F60" t="b">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>QUESTÃO 60. Pablo (13 anos) e Luís (19 anos), amigos de longa data, decidiram cometer suicídio. Durante 
 todo o período em que conversaram sobre o tema, sempre condicionaram a realização do ato à presença 
@@ -3815,7 +4300,7 @@
 independentemente de as consequências da infração o terem atingido de forma grave.</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -3836,22 +4321,30 @@
 A alternativa D está incorreta . Conforme comentários da alternativa B.</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Artigo 122 do Código Penal, Art. 129, §2º, do CP, artigo 122, §6º, do CP</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E61" t="b">
-        <v>0</v>
+      <c r="F61" t="b">
+        <v>0</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>QUESTÃO 61. Paulo estava desempregado, precisando de dinheiro, quando, dentro do metrô, avistou uma 
 mulher com a bolsa entreaberta e a carteira 3 mostra. Paulo decidiu pegar a carteira, sem que ninguém 
@@ -3865,7 +4358,7 @@
 d) arrependimento eficaz.</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B . 
@@ -3899,22 +4392,30 @@
 15 do CP, pressupõe a conclusão da fase executória, atuando o agente para impedir o resultado.</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>iter criminis, REsp 1.524.450/RJ - Tema 934, teoria apprehensio, teoria amotio, artigo 16 do CP, artigo 15 do CP, artigo 14, II, do CP</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E62" t="b">
-        <v>0</v>
+      <c r="F62" t="b">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>QUESTÃO 62. Caio, lutador de MMA, estava na praia quando viu uma senhora ser agredida por um 
 terceiro. Caio foi em direção ao agressor e tentou persuadi -lo a parar com as agressões, mas o agressor 
@@ -3927,7 +4428,7 @@
 d) ilicitude por legítima defesa.</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -3957,22 +4458,30 @@
 interesse de terceiro, sendo sua conduta abrangida p or esta excludente de ilicitude.</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>excludentes de tipicidade, ilicitude, culpabilidade, coação física irresistível, art. 22 do CP, coação moral irresistível, artigo 23,III, do CP, exercício regular do direito, artigo 129 do CP, artigo 23,II, do CP, artigo 25 do mesmo diploma, legítima defesa</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E63" t="b">
-        <v>0</v>
+      <c r="F63" t="b">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Direito Penal</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>QUESTÃO 63. Arthur, Bruno, Fernanda e Camille foram acusados de furto simples praticado em 2020.   
 Arthur foi definitivamente condenado, Bruno foi condenado, porém, recorreu e ainda não houve decisão 
@@ -3987,7 +4496,7 @@
 d) Fernanda e Camille.</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="C64" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -4014,22 +4523,30 @@
 A alternativa D está incorreta . Conforme comentários da alternativa C.</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Artigo 28-A, §2º, II, do CPP, Artigo 28-A, §2º, III, do CPP, Artigo 5º, LVII, da CF, Presunção de inocência, HC 664.284</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E64" t="b">
-        <v>0</v>
+      <c r="F64" t="b">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>QUESTÃO 64. Adamastor, Juiz Federal em exercício na Seção Judiciária do Rio de Janeiro, vinculada ao 
 Tribunal Regional Federal da Segunda Região, ajuizou queixa -crime contra o advogado Braulio, que foi 
@@ -4046,7 +4563,7 @@
 d) Tribunal de Justiça do  Estado do Rio de Janeiro.</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="C65" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta é a letra C . 
@@ -4062,22 +4579,30 @@
 A alternativa D está incorreta . Conforme comentários da alternativa C.</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Artigo 85 do CPP, Rcl 7.391 -MT, Foro por prerrogativa de função</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E65" t="b">
+      <c r="F65" t="b">
         <v>1</v>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>QUESTÃO 65. Júnior foi condenado pelo delito de latrocínio, na modalidade tentada, a uma pena de 8 
 (oito) anos e 6 (seis) meses de reclusão, a ser cumprida em regime inicial fechado, já tendo a sentença 
@@ -4092,7 +4617,7 @@
 d) Pleitear um decreto de anistia no âmbito da Assembleia Legislativa do seu Estado.</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra C . 
@@ -4122,22 +4647,30 @@
 I, da lei nº 8.072/90.</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>art. 105, art. 1º, II, c, da lei nº 8.072/90, art. 2º, I, da lei nº 8.072/90, art. 126 da LEP, §6º do art. 126 da LEP</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E66" t="b">
-        <v>0</v>
+      <c r="F66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>QUESTÃO 66. Osvaldo foi denunciado pela pratica do crime de estelionato em coautoria com Flávio.   
 Durante a instrução processual, o Juízo ouviu três testemunhas da acusação, e, uma delas, Fabiana, 
@@ -4158,7 +4691,7 @@
 que exigem participação ativa do denunciado, tal como a acareação.</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra D . 
@@ -4185,22 +4718,30 @@
 de Nova York, ambos já incorporados em nosso ordenamento jurídico”.</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>artigo 229 do CPP, artigo 5º, LV, da CF, artigos 229 e 230 do CPP, art. 8º, 2, g, do Pacto de São José da Costa Rica, art. 14,3, g do Pacto Internacional sobre Direitos Civis e Políticos de Nova York, proibição da não auto incriminação</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E67" t="b">
-        <v>0</v>
+      <c r="F67" t="b">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>QUESTÃO 67. Fabrício foi preso em flagrante pela prática do crime de roubo, tendo havido a regular 
 conversão do flagrante em prisão preventiva.   
@@ -4216,7 +4757,7 @@
 d) Recurso extraordinário, dirigido ao Supremo Tribunal Federal.</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="C68" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -4232,22 +4773,30 @@
 A alternativa D está incorreta . Conforme comentários da alternativa A.</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Artigo 105, II, “a”, da CF, Habeas Corpus, Recurso Ordinário Constitucional</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E68" t="b">
-        <v>0</v>
+      <c r="F68" t="b">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>QUESTÃO 68. André, primário, subtraiu o computador de Gustavo, enquanto este estava  distraído em via 
 pública, em uma sexta -feira.   
@@ -4267,7 +4816,7 @@
 cabível a prisão preventiva, devendo ser postulada a liberdade provisória.</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra A . 
@@ -4294,22 +4843,30 @@
 A alternativa D está incorreta . Conforme comentários da alternativa A.</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Prisão em Flagrante, artigo 180 do CP (receptação), princípio da consunção, artigo 302 do CPP</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E69" t="b">
-        <v>0</v>
+      <c r="F69" t="b">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Direito Processual Penal</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>QUESTÃO 69. Henrique e Amanda foram casados por 30 anos. Em 02/03/2022, Amanda, que era segurada 
 obrigatória do Regime Geral de Previdência Social, veio a óbito. Henrique fez o requerimento de pensão 
@@ -4322,7 +4879,7 @@
 d) Do óbito, independentemente da data em que foi feito o requerimento.</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="C70" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta é a letra B .  
@@ -4335,22 +4892,30 @@
 As demais alternativas  estão incorretas  conforme o comentário da alternativa B.</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Art. 74 da Lei nº 8.213/1991</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E70" t="b">
-        <v>0</v>
+      <c r="F70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>QUESTÃO 70 Marina, empregada doméstica, é casada com Pedro, trabalhador avulso. Ambos são pessoas 
 de baixa renda. O casal possui 2 (dois) filhos, um com 7 (sete) anos e outro com 15 anos, sendo este 
@@ -4363,7 +4928,7 @@
 d) Pedro, na qualidade de trabalhador avulso, não possui direito ao benefício do salário -família.</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="C71" t="inlineStr">
         <is>
           <t>A alternativa correta é a letra C. A questão aborda sobre o benefício do salário família.   
 A alternativa A está incorreta . O Salário Família não tem carência (art. 26, I da Lei 8.213/91).  
@@ -4375,22 +4940,30 @@
 lei 8.213/91).</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Art. 26, I da Lei 8.213/91, Art. 65 da Lei 8.213/91, Art. 66 da Lei 8.213/91</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E71" t="b">
-        <v>0</v>
+      <c r="F71" t="b">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Direito Previdenciário</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>QUESTÃO 71. Em determinada sociedade empresária trabalham, entre outras, as seguintes pessoas: José, 
 que é teletrabalhador e recebe salário por produção; Vanilda, que trabalha externamente sem que o 
@@ -4404,7 +4977,7 @@
 d) José e Regina terão direito a horas extras, caso ultrapassem a jornada constitucional.</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra B . 
@@ -4427,22 +5000,30 @@
 As demais alternativas ficam automaticamente incorretas .</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>artigo 62 da CLT, Art. 62, I, da CLT, Art. 62, II, da CLT, Art. 62, III, da CLT</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E72" t="b">
-        <v>0</v>
+      <c r="F72" t="b">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>QUESTÃO 72. Uma família, composta de pai, mãe e uma filha, respectivamente Jorge, Paula e Rita, 
 trabalha na mesma sociedade empresária como funcionários do departamento de produção.  
@@ -4465,7 +5046,7 @@
 indeferimento pelo empregador.</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>Comentários   
  A alternativa correta a ser assinalada é a letra D . 
@@ -4483,22 +5064,30 @@
 com as férias escolares.”</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>art. 136, § 1º, da CLT, art. 136 da CLT, art. 136, § 2º, da CLT</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E73" t="b">
-        <v>0</v>
+      <c r="F73" t="b">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>QUESTÃO 73. Você, como advogado, trabalha no setor de recursos humanos de uma grande empresa 
 multinacional. Como o gerente do setor está de férias, e é ele, na condição de gerente, que defere ou 
@@ -4519,7 +5108,7 @@
 ser parte na demanda, mas não para servir como testemunha.</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra B.  
@@ -4540,22 +5129,30 @@
 necessário, quando tiver que comparecer a juízo.”</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Art. 473, I, da CLT, Art. 473, IV, da CLT, Art. 476 da CLT, Art. 473, VIII, da CLT</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E74" t="b">
-        <v>0</v>
+      <c r="F74" t="b">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>QUESTÃO 74. Determinada sociedade empresária possui cerca de 100 funcionários e, em razão de 
 mudança na direção, decidiu realizar algumas dispensas. Ocorre que alguns dos funcionários indicados 
@@ -4576,7 +5173,7 @@
 o reconhecimento da estabilidade.</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra B . 
@@ -4619,22 +5216,30 @@
 estabilidade (art. 10, II, "b" do ADCT).</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Art. 391-A da CLT, Art. 10, II, alínea ‘b’ do ADCT, Art. 165 da CLT, Art. 10, II, alínea ‘a’, do ADCT, Art. 543, § 3º, da CLT, RE 629053 (STF), Súmula 244 do TST, Art. 10, II, "b" do ADCT</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E75" t="b">
-        <v>0</v>
+      <c r="F75" t="b">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>QUESTÃO 75. Plínio Salgado ficou afastado do trabalho por 8 meses em benefício previdenciário 
 decorrente de doença ocupacional relacionada ao trabalho. Ao retornar após a alta médica, foi informado 
@@ -4654,7 +5259,7 @@
 cômputo do tempo de serviço.</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra A . 
@@ -4685,22 +5290,30 @@
 FGTS é obrigatório em caso de acidente do trabalho.</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Art. 15, § 5º, da Lei 8.036/90, Art. 471, da CLT, Art. 133, IV, da CLT</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E76" t="b">
-        <v>0</v>
+      <c r="F76" t="b">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Direito do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>QUESTÃO 76. Em uma reclamação trabalhista na qual o reclamante postula apenas o pagamento das 
 verbas devidas pela extinção do contrato, a sociedade empresária alegou em sua defesa que nada seria 
@@ -4719,7 +5332,7 @@
 para que a instrução seja refeita com renovação das provas na ordem correta.</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra C.  
@@ -4741,22 +5354,30 @@
 CLT.</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Art. 765, da CLT, Art. 852-H, § 2º, da CLT, Art. 821, da CLT</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E77" t="b">
-        <v>0</v>
+      <c r="F77" t="b">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>QUESTÃO 77. De uma sentença trabalhista, que julgou o pedido procedente em parte, somente o 
 reclamante recorreu. No prazo de 8 dias da intimação acerca do recurso, a sociedade empresária 
@@ -4774,7 +5395,7 @@
 gerar consequência ao recurso adesivo.</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra C . 
@@ -4793,22 +5414,30 @@
 tempo, sem a anuência do recorrido ou dos litisconsortes, desistir do recurso.”</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Súmula 283 do TST, art. 997, § 2º, III, do CPC, art. 998 do CPC</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="E78" t="b">
-        <v>0</v>
+      <c r="F78" t="b">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>QUESTÃO 78. O Município de Sete Lagoas/MG foi condenado de forma subsidiária numa reclamação 
 trabalhista envolvendo terceirização. Sendo infrutífera a execução contra o prestador dos serviços, a 
@@ -4821,7 +5450,7 @@
 d) O juízo precisa ser garantido com seguro fiança judicial para não abalar as finanças do ente público.</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra B . 
@@ -4844,22 +5473,30 @@
 conforme explicado acima, na justificativa da alternativa B.</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Art. 884 da CLT, Art. 1º-B da Lei nº 9.494/97, Art. 730 do Código de Processo Civil, Art. 100 da CF, Arts. 534 e 535 do CPC, Lei nº 9.494/97, Decreto Lei nº 779/69, impenhorabilidade dos bens públicos</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="E79" t="b">
-        <v>0</v>
+      <c r="F79" t="b">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>QUESTÃO 79. John estava empregado em uma sociedade empresária de óleo e gás, mas foi injustamente 
 dispensado por justa causa, com base em uma falsa acusação de consumo de álcool a bordo da plataforma, 
@@ -4878,7 +5515,7 @@
 parte autora deverá custear a despesa processual.</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra A . 
@@ -4897,22 +5534,30 @@
 leitura do artigo 819, § 2º, da CLT.</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Artigo 819, caput e § 2º, da CLT, Artigo 98, § 1º, VI, do CPC</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E80" t="b">
-        <v>0</v>
+      <c r="F80" t="b">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>QUESTÃO 80. Determinada sociedade empresária, sua cliente, recebeu a visita de fiscais do trabalho, os 
 quais apontaram haver irregularidades quanto às condições de trabalho de alguns empregados, bem como 
@@ -4931,7 +5576,7 @@
 d) Agravo de Instrumento na Justiça do Trabalho.</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Comentários  
 A alternativa correta a ser assinalada é a letra A . 
@@ -4960,18 +5605,23 @@
   Instagram: estrategiacarreirajurídica / yasminushara</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Art. 114, IV e VII da CF, Art. 20 da Lei 12.016/2009, Art. 897, alínea ‘a’, da CLT, Art. 897, alínea ‘b’, da CLT</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="E81" t="b">
-        <v>0</v>
+      <c r="F81" t="b">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Direito Processual do Trabalho</t>
+        </is>
       </c>
     </row>
   </sheetData>
